--- a/RalphLauren/src/main/java/com/rl/qa/testdata/rl.xlsx
+++ b/RalphLauren/src/main/java/com/rl/qa/testdata/rl.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FAB7B-35CA-4AD0-892E-FBE13AC9C89C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A169B4A8-EB67-414A-A12F-C32DEBCF4FE4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,41 +41,41 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>sss1@xc.com</t>
-  </si>
-  <si>
-    <t>sss3@xc.com</t>
-  </si>
-  <si>
-    <t>sss5@xc.com</t>
-  </si>
-  <si>
     <t>Password123!</t>
   </si>
   <si>
-    <t>madhu1</t>
-  </si>
-  <si>
-    <t>madhu2</t>
-  </si>
-  <si>
-    <t>madhu3</t>
-  </si>
-  <si>
-    <t>sudan1</t>
-  </si>
-  <si>
-    <t>sudan2</t>
-  </si>
-  <si>
-    <t>sudan3</t>
+    <t>madhuw</t>
+  </si>
+  <si>
+    <t>madhux</t>
+  </si>
+  <si>
+    <t>madhuy</t>
+  </si>
+  <si>
+    <t>sudanw</t>
+  </si>
+  <si>
+    <t>sudanx</t>
+  </si>
+  <si>
+    <t>sudany</t>
+  </si>
+  <si>
+    <t>sssw@xc.com</t>
+  </si>
+  <si>
+    <t>sssx@xc.com</t>
+  </si>
+  <si>
+    <t>sssy@xc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +87,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,16 +138,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,7 +431,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,66 +465,74 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9E53280F-15A3-4999-82C4-55E61F479CF1}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F07905FD-3D44-42E7-A1EB-FBE3E68BA67E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{76AD272F-1CE8-4240-B928-F106E41CBB46}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{B923724A-B66E-4AA7-8FEB-4C91134082C5}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{0335641D-C2B9-4611-B330-98F8D5011EB4}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{F4079D59-DCCF-4761-B609-461FC123EA7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/RalphLauren/src/main/java/com/rl/qa/testdata/rl.xlsx
+++ b/RalphLauren/src/main/java/com/rl/qa/testdata/rl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A169B4A8-EB67-414A-A12F-C32DEBCF4FE4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6BDC86AC-D16E-4B0A-B2A0-4B7FABFBFA77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,31 +44,31 @@
     <t>Password123!</t>
   </si>
   <si>
-    <t>madhuw</t>
-  </si>
-  <si>
-    <t>madhux</t>
-  </si>
-  <si>
-    <t>madhuy</t>
-  </si>
-  <si>
-    <t>sudanw</t>
-  </si>
-  <si>
-    <t>sudanx</t>
-  </si>
-  <si>
-    <t>sudany</t>
-  </si>
-  <si>
-    <t>sssw@xc.com</t>
-  </si>
-  <si>
-    <t>sssx@xc.com</t>
-  </si>
-  <si>
-    <t>sssy@xc.com</t>
+    <t>madhua</t>
+  </si>
+  <si>
+    <t>madhub</t>
+  </si>
+  <si>
+    <t>madhuc</t>
+  </si>
+  <si>
+    <t>sudana</t>
+  </si>
+  <si>
+    <t>sudanb</t>
+  </si>
+  <si>
+    <t>sudanc</t>
+  </si>
+  <si>
+    <t>sssa@xc.com</t>
+  </si>
+  <si>
+    <t>sssb@xc.com</t>
+  </si>
+  <si>
+    <t>sssc@xc.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,12 +525,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9E53280F-15A3-4999-82C4-55E61F479CF1}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F07905FD-3D44-42E7-A1EB-FBE3E68BA67E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{76AD272F-1CE8-4240-B928-F106E41CBB46}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{B923724A-B66E-4AA7-8FEB-4C91134082C5}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{0335641D-C2B9-4611-B330-98F8D5011EB4}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{F4079D59-DCCF-4761-B609-461FC123EA7C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9A9E9D0A-A55C-4ED3-8E49-39F734CC8F83}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{78913AEE-D40B-454D-BAAE-5677016DA54D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2902974C-2D9F-4426-8774-55E94B2FF5EB}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{C0C08838-06C2-460E-9BB0-7C4DB99A131C}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{36EDB80F-D290-487E-BA46-EB184AF4CAE3}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{B0CC361B-8892-4BCA-8868-A8DA448A9E33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
